--- a/academycity/data/ch/datasets/excel/data/branches.xlsx
+++ b/academycity/data/ch/datasets/excel/data/branches.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
